--- a/indep_keys_preds.xlsx
+++ b/indep_keys_preds.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,14 +457,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gilbertese</t>
+          <t>Marshallese</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marshallese</t>
+          <t>E. Pomo</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -489,14 +489,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E. Pomo</t>
+          <t>Popoluca</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -505,14 +505,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Popoluca</t>
+          <t>Konso</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -521,14 +521,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Konso</t>
+          <t>Bribri</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,14 +537,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bribri</t>
+          <t>Tallensi</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -553,7 +553,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tallensi</t>
+          <t>Russians</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -569,7 +569,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Russians</t>
+          <t>Trukese</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -585,14 +585,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Trukese</t>
+          <t>Toraja</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -601,14 +601,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toraja</t>
+          <t>Pawnee</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pawnee</t>
+          <t>Burmese</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -633,14 +633,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rhade</t>
+          <t>Timbira</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -649,14 +649,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Burmese</t>
+          <t>Basseri</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -665,14 +665,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Timbira</t>
+          <t>Havasupai</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +681,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Basseri</t>
+          <t>Yukaghir</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Havasupai</t>
+          <t>Comanche</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -713,14 +713,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Yukaghir</t>
+          <t>Jivaro</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -729,14 +729,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Comanche</t>
+          <t>Burusho</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -745,7 +745,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jivaro</t>
+          <t>Taureg</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -761,14 +761,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Yanomamo</t>
+          <t>Shavante</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -777,7 +777,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Burusho</t>
+          <t>Teda</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -793,14 +793,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Taureg</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -809,7 +809,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shavante</t>
+          <t>Kikuyu</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -825,14 +825,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kurds</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -841,14 +841,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Yapese</t>
+          <t>Natchez</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -857,14 +857,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Teda</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -873,14 +873,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Iroquois</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -889,14 +889,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kikuyu</t>
+          <t>Orang Asli</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -905,14 +905,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Nilgiri Pla.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -921,14 +921,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natchez</t>
+          <t>Wynaad Pla.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -937,7 +937,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Nordic Nats.</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Iroquois</t>
+          <t>Up Xingu RB</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Orang Asli</t>
+          <t>W. Australia</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nilgiri Pla.</t>
+          <t>Mon-Naskapi</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wynaad Pla.</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nordic Nats.</t>
+          <t>So Cone</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Up Xingu RB</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>W. Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mon-Naskapi</t>
+          <t>Mbuti</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1081,14 +1081,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Juhoansi</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1097,93 +1097,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>So Cone</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Mbuti</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Juhoansi</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
         <v>1</v>
       </c>
     </row>

--- a/indep_keys_preds.xlsx
+++ b/indep_keys_preds.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1108,6 +1108,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>